--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" state="visible" r:id="rId1"/>
@@ -419,14 +419,122 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
+    <col width="31.29071428571428" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>la croissance</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>de groei, de stijging</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>wrong</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>voir</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>zien</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>wrong</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>aller</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>gaan</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>wrong</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>manger</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>eten</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>wrong</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>dresser</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>opzetten, opstellen</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -439,7 +547,7 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/test.xlsx
+++ b/test.xlsx
@@ -445,7 +445,7 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>wrong</t>
+          <t>correct</t>
         </is>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet name="test" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="H1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="difficult" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -462,7 +463,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>wrong</t>
+          <t>correct</t>
         </is>
       </c>
     </row>
@@ -496,7 +497,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>wrong</t>
+          <t>correct</t>
         </is>
       </c>
     </row>
@@ -513,7 +514,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>wrong</t>
+          <t>correct</t>
         </is>
       </c>
     </row>
@@ -612,4 +613,71 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>eten</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>manger</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>zien</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>voir</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>opzetten, opstellen</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>dresser</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>